--- a/excel/K卡牌表.xlsx
+++ b/excel/K卡牌表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,7 +11,7 @@
     <sheet name="备注" sheetId="2" r:id="rId2"/>
     <sheet name="参考" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -29,29 +29,32 @@
   <connection id="4" name="CardTemplate_table3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\xianCardData\define\template\excel\CardTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="5" name="SkillTemplate_table" type="4" refreshedVersion="0" background="1">
+  <connection id="5" name="CardTemplate_table4" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\CardDoc\define\template\excel\CardTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="6" name="SkillTemplate_table" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\data\define\template\excel\SkillTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="6" name="SkillTemplate_table1" type="4" refreshedVersion="0" background="1">
+  <connection id="7" name="SkillTemplate_table1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\data\define\template\excel\SkillTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="7" name="SkillTemplate_table2" type="4" refreshedVersion="0" background="1">
+  <connection id="8" name="SkillTemplate_table2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\data\define\template\excel\SkillTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="8" name="SkillTemplate_table3" type="4" refreshedVersion="0" background="1">
+  <connection id="9" name="SkillTemplate_table3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\data\define\template\excel\SkillTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="9" name="SkillTemplate_table4" type="4" refreshedVersion="0" background="1">
+  <connection id="10" name="SkillTemplate_table4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\data\define\template\excel\SkillTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="10" name="SkillTemplate_table5" type="4" refreshedVersion="0" background="1">
+  <connection id="11" name="SkillTemplate_table5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\data\define\template\excel\SkillTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,7 +76,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级后ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8点伤害、易伤2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手牌都是攻击牌才能打出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成格挡值的伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9伤害 抽1张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成5点伤害2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或者7点格挡 消耗1张随机手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五灵归宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五灵归宗+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -81,43 +176,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>升级后ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御+</t>
+    <t>金甲阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金甲阵+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合结束获得3点护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合结束获得4点护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成6点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5点防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以剑护身，对攻击者造成等同于护甲减少值一半的伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -125,162 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8点伤害、易伤2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手牌都是攻击牌才能打出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成格挡值的伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成9伤害 抽1张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成5点伤害2次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>或者7点格挡 消耗1张随机手牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五灵归宗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阵法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五灵归宗+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑仙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金甲阵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金甲阵+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合结束获得3点护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合结束获得4点护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成6点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成9点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得5点防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得8点防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以剑护身，对攻击者造成等同于护甲减少值一半的伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地脉阵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,27 +224,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>护甲不在回合结束时消失</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8</t>
+    <t>卡牌使用条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用条件参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,7 +293,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -384,27 +315,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="9">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -414,19 +347,27 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema3">
+  <Schema ID="Schema2">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="LocalDatas">
         <xsd:complexType>
@@ -448,6 +389,8 @@
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="iCost" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="szDesc" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nType" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nCardUseType" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nUseTypeParam" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nEffectId" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nUpgradeId" form="unqualified"/>
                             </xsd:sequence>
@@ -464,51 +407,51 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="10" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="4" DataBindingLoadMode="1"/>
+  <Map ID="11" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="5" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:J11" tableType="xml" totalsRowShown="0" connectionId="4">
-  <autoFilter ref="A1:J11">
-    <filterColumn colId="3"/>
-    <filterColumn colId="5"/>
-    <filterColumn colId="7"/>
-    <filterColumn colId="8"/>
-    <filterColumn colId="9"/>
-  </autoFilter>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:L11" tableType="xml" totalsRowShown="0" connectionId="5">
+  <autoFilter ref="A1:L11"/>
+  <tableColumns count="12">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
-      <xmlColumnPr mapId="10" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataExcept" xmlDataType="string"/>
+      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataExcept" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="nDataDiff" name="nDataDiff">
-      <xmlColumnPr mapId="10" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataDiff" xmlDataType="string"/>
+      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataDiff" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="nId" name="ID" dataDxfId="6">
-      <xmlColumnPr mapId="10" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nId" xmlDataType="string"/>
+    <tableColumn id="3" uniqueName="nId" name="ID" dataDxfId="8">
+      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="nJob" name="职业" dataDxfId="5">
-      <xmlColumnPr mapId="10" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nJob" xmlDataType="string"/>
+    <tableColumn id="10" uniqueName="nJob" name="职业" dataDxfId="7">
+      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nJob" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="szName" name="名称">
-      <xmlColumnPr mapId="10" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/szName" xmlDataType="string"/>
+      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/szName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="iCost" name="费用" dataDxfId="4">
-      <xmlColumnPr mapId="10" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/iCost" xmlDataType="string"/>
+    <tableColumn id="7" uniqueName="iCost" name="费用" dataDxfId="6">
+      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/iCost" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="szDesc" name="描述" dataDxfId="3">
-      <xmlColumnPr mapId="10" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/szDesc" xmlDataType="string"/>
+    <tableColumn id="5" uniqueName="szDesc" name="描述" dataDxfId="5">
+      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/szDesc" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="nType" name="卡牌类型" dataDxfId="2">
-      <xmlColumnPr mapId="10" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nType" xmlDataType="string"/>
+    <tableColumn id="8" uniqueName="nType" name="卡牌类型" dataDxfId="4">
+      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="nEffectId" name="效果ID" dataDxfId="1">
-      <xmlColumnPr mapId="10" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nEffectId" xmlDataType="string"/>
+    <tableColumn id="11" uniqueName="nCardUseType" name="卡牌使用条件" dataDxfId="1">
+      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nCardUseType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="nUpgradeId" name="升级后ID" dataDxfId="0">
-      <xmlColumnPr mapId="10" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nUpgradeId" xmlDataType="string"/>
+    <tableColumn id="12" uniqueName="nUseTypeParam" name="使用条件参数" dataDxfId="0">
+      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nUseTypeParam" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="9" uniqueName="nEffectId" name="效果ID" dataDxfId="3">
+      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nEffectId" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="nUpgradeId" name="升级后ID" dataDxfId="2">
+      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nUpgradeId" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -558,7 +501,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,9 +533,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,6 +568,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -799,14 +744,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -816,12 +761,13 @@
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="50.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.25" customWidth="1"/>
-    <col min="10" max="10" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="13.75" customWidth="1"/>
+    <col min="11" max="11" width="9.25" customWidth="1"/>
+    <col min="12" max="12" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -832,128 +778,158 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>44</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
-      <c r="C2" s="5" t="s">
-        <v>6</v>
+      <c r="C2" s="5">
+        <v>1</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="4">
+        <v>34</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+      <c r="L2" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
+      <c r="C3" s="4">
+        <v>2</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10">
+        <v>35</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>0</v>
+      </c>
+      <c r="J3" s="5">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>2</v>
+      </c>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="4" t="s">
-        <v>19</v>
+      <c r="C4" s="4">
+        <v>3</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="4">
+        <v>36</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>3</v>
+      </c>
+      <c r="L4" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
+      <c r="C5" s="5">
+        <v>4</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10">
+        <v>37</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
+        <v>4</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="5">
@@ -963,25 +939,31 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="F6" s="2">
+        <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>38</v>
+      </c>
+      <c r="H6" s="5">
+        <v>3</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5">
@@ -991,129 +973,159 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8">
+      <c r="H7" s="5">
+        <v>3</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>5</v>
+      </c>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="5">
         <v>7</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="8">
+        <v>32</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>6</v>
+      </c>
+      <c r="L8" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="5">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8">
+        <v>33</v>
+      </c>
+      <c r="H9" s="5">
+        <v>3</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>7</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="5">
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>59</v>
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J10" s="8">
+        <v>42</v>
+      </c>
+      <c r="H10" s="5">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>8</v>
+      </c>
+      <c r="L10" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="5">
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>60</v>
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="2">
+        <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J11" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="H11" s="5">
+        <v>3</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>8</v>
+      </c>
+      <c r="L11" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1126,61 +1138,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1191,43 +1203,43 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/excel/K卡牌表.xlsx
+++ b/excel/K卡牌表.xlsx
@@ -32,29 +32,32 @@
   <connection id="5" name="CardTemplate_table4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\CardDoc\define\template\excel\CardTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="6" name="SkillTemplate_table" type="4" refreshedVersion="0" background="1">
+  <connection id="6" name="CardTemplate_table5" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\CardDoc\define\template\excel\CardTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="7" name="SkillTemplate_table" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\data\define\template\excel\SkillTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="7" name="SkillTemplate_table1" type="4" refreshedVersion="0" background="1">
+  <connection id="8" name="SkillTemplate_table1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\data\define\template\excel\SkillTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="8" name="SkillTemplate_table2" type="4" refreshedVersion="0" background="1">
+  <connection id="9" name="SkillTemplate_table2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\data\define\template\excel\SkillTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="9" name="SkillTemplate_table3" type="4" refreshedVersion="0" background="1">
+  <connection id="10" name="SkillTemplate_table3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\data\define\template\excel\SkillTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="10" name="SkillTemplate_table4" type="4" refreshedVersion="0" background="1">
+  <connection id="11" name="SkillTemplate_table4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\data\define\template\excel\SkillTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="11" name="SkillTemplate_table5" type="4" refreshedVersion="0" background="1">
+  <connection id="12" name="SkillTemplate_table5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\data\define\template\excel\SkillTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金甲阵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -212,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地脉阵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,6 +228,10 @@
   </si>
   <si>
     <t>使用条件参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,7 +292,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -315,15 +314,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -334,6 +335,14 @@
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -367,7 +376,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema2">
+  <Schema ID="Schema3">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="LocalDatas">
         <xsd:complexType>
@@ -389,6 +398,7 @@
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="iCost" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="szDesc" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nType" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nTargetType" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nCardUseType" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nUseTypeParam" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nEffectId" form="unqualified"/>
@@ -407,51 +417,54 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="11" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="5" DataBindingLoadMode="1"/>
+  <Map ID="12" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="6" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:L11" tableType="xml" totalsRowShown="0" connectionId="5">
-  <autoFilter ref="A1:L11"/>
-  <tableColumns count="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M11" tableType="xml" totalsRowShown="0" connectionId="6">
+  <autoFilter ref="A1:M11"/>
+  <tableColumns count="13">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
-      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataExcept" xmlDataType="string"/>
+      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataExcept" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="nDataDiff" name="nDataDiff">
-      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataDiff" xmlDataType="string"/>
+      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataDiff" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="nId" name="ID" dataDxfId="8">
-      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nId" xmlDataType="string"/>
+    <tableColumn id="3" uniqueName="nId" name="ID" dataDxfId="9">
+      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="nJob" name="职业" dataDxfId="7">
-      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nJob" xmlDataType="string"/>
+    <tableColumn id="10" uniqueName="nJob" name="职业" dataDxfId="8">
+      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nJob" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="szName" name="名称">
-      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/szName" xmlDataType="string"/>
+      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/szName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="iCost" name="费用" dataDxfId="6">
-      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/iCost" xmlDataType="string"/>
+    <tableColumn id="7" uniqueName="iCost" name="费用" dataDxfId="7">
+      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/iCost" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="szDesc" name="描述" dataDxfId="5">
-      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/szDesc" xmlDataType="string"/>
+    <tableColumn id="5" uniqueName="szDesc" name="描述" dataDxfId="6">
+      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/szDesc" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="nType" name="卡牌类型" dataDxfId="4">
-      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nType" xmlDataType="string"/>
+    <tableColumn id="8" uniqueName="nType" name="卡牌类型" dataDxfId="5">
+      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="nCardUseType" name="卡牌使用条件" dataDxfId="1">
-      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nCardUseType" xmlDataType="string"/>
+    <tableColumn id="13" uniqueName="nTargetType" name="目标类型" dataDxfId="0">
+      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nTargetType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="nUseTypeParam" name="使用条件参数" dataDxfId="0">
-      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nUseTypeParam" xmlDataType="string"/>
+    <tableColumn id="11" uniqueName="nCardUseType" name="卡牌使用条件" dataDxfId="4">
+      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nCardUseType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="nEffectId" name="效果ID" dataDxfId="3">
-      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nEffectId" xmlDataType="string"/>
+    <tableColumn id="12" uniqueName="nUseTypeParam" name="使用条件参数" dataDxfId="3">
+      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nUseTypeParam" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="nUpgradeId" name="升级后ID" dataDxfId="2">
-      <xmlColumnPr mapId="11" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nUpgradeId" xmlDataType="string"/>
+    <tableColumn id="9" uniqueName="nEffectId" name="效果ID" dataDxfId="2">
+      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nEffectId" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="6" uniqueName="nUpgradeId" name="升级后ID" dataDxfId="1">
+      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nUpgradeId" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -745,10 +758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -761,13 +774,13 @@
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="50.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="9.25" customWidth="1"/>
-    <col min="12" max="12" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13.75" customWidth="1"/>
+    <col min="12" max="12" width="9.25" customWidth="1"/>
+    <col min="13" max="13" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -796,16 +809,19 @@
         <v>43</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="5">
@@ -819,25 +835,28 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H2" s="5">
         <v>1</v>
       </c>
-      <c r="I2" s="5">
-        <v>0</v>
+      <c r="I2" s="7">
+        <v>1</v>
       </c>
       <c r="J2" s="5">
         <v>0</v>
       </c>
       <c r="K2" s="5">
-        <v>1</v>
-      </c>
-      <c r="L2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+      <c r="M2" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="4">
@@ -851,23 +870,26 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="5">
-        <v>0</v>
+      <c r="I3" s="8">
+        <v>1</v>
       </c>
       <c r="J3" s="5">
         <v>0</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
         <v>2</v>
       </c>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4">
@@ -881,25 +903,28 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="4">
         <v>2</v>
       </c>
-      <c r="I4" s="5">
-        <v>0</v>
+      <c r="I4" s="8">
+        <v>4</v>
       </c>
       <c r="J4" s="5">
         <v>0</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
         <v>3</v>
       </c>
-      <c r="L4" s="4">
+      <c r="M4" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5">
@@ -913,23 +938,26 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="5">
-        <v>0</v>
+      <c r="I5" s="7">
+        <v>4</v>
       </c>
       <c r="J5" s="5">
         <v>0</v>
       </c>
       <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
         <v>4</v>
       </c>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="5">
@@ -945,25 +973,28 @@
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6" s="5">
         <v>3</v>
       </c>
-      <c r="I6" s="5">
-        <v>0</v>
+      <c r="I6" s="7">
+        <v>4</v>
       </c>
       <c r="J6" s="5">
         <v>0</v>
       </c>
       <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
         <v>5</v>
       </c>
-      <c r="L6" s="5">
+      <c r="M6" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5">
@@ -979,153 +1010,168 @@
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="5">
         <v>3</v>
       </c>
-      <c r="I7" s="5">
-        <v>0</v>
+      <c r="I7" s="7">
+        <v>4</v>
       </c>
       <c r="J7" s="5">
         <v>0</v>
       </c>
       <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
         <v>5</v>
       </c>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="5">
         <v>3</v>
       </c>
-      <c r="I8" s="5">
-        <v>0</v>
+      <c r="I8" s="7">
+        <v>4</v>
       </c>
       <c r="J8" s="5">
         <v>0</v>
       </c>
       <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
         <v>6</v>
       </c>
-      <c r="L8" s="5">
+      <c r="M8" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
+      <c r="D9" s="7">
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="2">
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9" s="5">
         <v>3</v>
       </c>
-      <c r="I9" s="5">
-        <v>0</v>
+      <c r="I9" s="7">
+        <v>4</v>
       </c>
       <c r="J9" s="5">
         <v>0</v>
       </c>
       <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
         <v>7</v>
       </c>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="5">
         <v>9</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>39</v>
+      <c r="D10" s="7">
+        <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" s="2">
         <v>3</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H10" s="5">
         <v>3</v>
       </c>
-      <c r="I10" s="5">
-        <v>0</v>
+      <c r="I10" s="7">
+        <v>4</v>
       </c>
       <c r="J10" s="5">
         <v>0</v>
       </c>
       <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
         <v>8</v>
       </c>
-      <c r="L10" s="5">
+      <c r="M10" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H11" s="5">
         <v>3</v>
       </c>
-      <c r="I11" s="5">
-        <v>0</v>
+      <c r="I11" s="7">
+        <v>4</v>
       </c>
       <c r="J11" s="5">
         <v>0</v>
       </c>
       <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
         <v>8</v>
       </c>
-      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/K卡牌表.xlsx
+++ b/excel/K卡牌表.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,118 @@
   </si>
   <si>
     <t>目标类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天师符法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽3张牌，本回不能再抽牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天师符法+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽4张牌，本回不能再抽牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术宗·无危</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术宗·无危+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点防御，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得11点防御，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑心通明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑心通明+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成6点伤害，如果伤害没有被格挡，获得1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害，如果伤害没有被格挡，获得1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,15 +438,15 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -424,8 +536,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M11" tableType="xml" totalsRowShown="0" connectionId="6">
-  <autoFilter ref="A1:M11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M17" tableType="xml" totalsRowShown="0" connectionId="6">
+  <autoFilter ref="A1:M17"/>
   <tableColumns count="13">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -451,19 +563,19 @@
     <tableColumn id="8" uniqueName="nType" name="卡牌类型" dataDxfId="5">
       <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="nTargetType" name="目标类型" dataDxfId="0">
+    <tableColumn id="13" uniqueName="nTargetType" name="目标类型" dataDxfId="4">
       <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nTargetType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="nCardUseType" name="卡牌使用条件" dataDxfId="4">
+    <tableColumn id="11" uniqueName="nCardUseType" name="卡牌使用条件" dataDxfId="3">
       <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nCardUseType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="nUseTypeParam" name="使用条件参数" dataDxfId="3">
+    <tableColumn id="12" uniqueName="nUseTypeParam" name="使用条件参数" dataDxfId="2">
       <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nUseTypeParam" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="nEffectId" name="效果ID" dataDxfId="2">
+    <tableColumn id="9" uniqueName="nEffectId" name="效果ID" dataDxfId="1">
       <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nEffectId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="nUpgradeId" name="升级后ID" dataDxfId="1">
+    <tableColumn id="6" uniqueName="nUpgradeId" name="升级后ID" dataDxfId="0">
       <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nUpgradeId" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -758,10 +870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -770,7 +882,7 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="7.75" customWidth="1"/>
     <col min="7" max="7" width="50.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
@@ -1172,6 +1284,207 @@
         <v>8</v>
       </c>
       <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C12" s="3">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C13" s="3">
+        <v>12</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C14" s="3">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C15" s="3">
+        <v>14</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C16" s="3">
+        <v>15</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M16" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.15">
+      <c r="C17" s="3">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/K卡牌表.xlsx
+++ b/excel/K卡牌表.xlsx
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -344,6 +344,58 @@
   </si>
   <si>
     <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻剑决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻剑决+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成8点伤害，获得1把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成12点伤害，获得2把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子母剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子母剑+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害x2，获得2把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害x2，获得3把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -536,8 +588,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M17" tableType="xml" totalsRowShown="0" connectionId="6">
-  <autoFilter ref="A1:M17"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M21" tableType="xml" totalsRowShown="0" connectionId="6">
+  <autoFilter ref="A1:M21"/>
   <tableColumns count="13">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -870,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1454,7 +1506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C17" s="3">
         <v>16</v>
       </c>
@@ -1484,6 +1536,140 @@
       </c>
       <c r="L17" s="4" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C18" s="3">
+        <v>17</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="M18" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C19" s="3">
+        <v>18</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C20" s="3">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M20" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C21" s="3">
+        <v>20</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/excel/K卡牌表.xlsx
+++ b/excel/K卡牌表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,7 +11,7 @@
     <sheet name="备注" sheetId="2" r:id="rId2"/>
     <sheet name="参考" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -396,6 +396,37 @@
   </si>
   <si>
     <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无定剑</t>
+  </si>
+  <si>
+    <t>无定剑+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗所有费，每一费用造成8点伤害，获得X把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗所有费，每一费用造成11点伤害，获得X把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,8 +619,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M21" tableType="xml" totalsRowShown="0" connectionId="6">
-  <autoFilter ref="A1:M21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M23" tableType="xml" totalsRowShown="0" connectionId="6">
+  <autoFilter ref="A1:M23"/>
   <tableColumns count="13">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -636,7 +667,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -678,7 +709,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -713,7 +744,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -922,10 +953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1670,6 +1701,73 @@
       </c>
       <c r="L21" s="4" t="s">
         <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C22" s="3">
+        <v>21</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H22" s="5">
+        <v>1</v>
+      </c>
+      <c r="I22" s="8">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M22" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C23" s="3">
+        <v>22</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/excel/K卡牌表.xlsx
+++ b/excel/K卡牌表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,6 +427,34 @@
   </si>
   <si>
     <t>27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回剑护身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回剑护身+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把召唤的剑化为多重护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,8 +647,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M23" tableType="xml" totalsRowShown="0" connectionId="6">
-  <autoFilter ref="A1:M23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M25" tableType="xml" totalsRowShown="0" connectionId="6">
+  <autoFilter ref="A1:M25"/>
   <tableColumns count="13">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -667,7 +695,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -709,7 +737,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -744,7 +772,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -953,9 +981,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -1768,6 +1796,73 @@
       </c>
       <c r="L23" s="4" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C24" s="3">
+        <v>23</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="M24" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C25" s="3">
+        <v>24</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/excel/K卡牌表.xlsx
+++ b/excel/K卡牌表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,7 +11,7 @@
     <sheet name="备注" sheetId="2" r:id="rId2"/>
     <sheet name="参考" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,19 +450,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,27 +565,27 @@
   </cellStyles>
   <dxfs count="10">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -579,10 +595,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -737,7 +753,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -769,10 +785,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -804,7 +819,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -980,14 +994,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -1003,7 +1017,7 @@
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1044,7 +1058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="5">
@@ -1079,7 +1093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="4">
@@ -1112,7 +1126,7 @@
       </c>
       <c r="M3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4">
@@ -1147,7 +1161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5">
@@ -1180,7 +1194,7 @@
       </c>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="5">
@@ -1217,7 +1231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5">
@@ -1252,7 +1266,7 @@
       </c>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="5">
@@ -1289,7 +1303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5">
@@ -1324,7 +1338,7 @@
       </c>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="5">
@@ -1361,7 +1375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5">
@@ -1396,7 +1410,7 @@
       </c>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="C12" s="3">
         <v>11</v>
       </c>
@@ -1431,7 +1445,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="C13" s="3">
         <v>12</v>
       </c>
@@ -1463,7 +1477,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="C14" s="3">
         <v>13</v>
       </c>
@@ -1498,7 +1512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13">
       <c r="C15" s="3">
         <v>14</v>
       </c>
@@ -1530,7 +1544,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13">
       <c r="C16" s="3">
         <v>15</v>
       </c>
@@ -1565,7 +1579,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:13">
       <c r="C17" s="3">
         <v>16</v>
       </c>
@@ -1597,7 +1611,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:13">
       <c r="C18" s="3">
         <v>17</v>
       </c>
@@ -1632,7 +1646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:13">
       <c r="C19" s="3">
         <v>18</v>
       </c>
@@ -1664,7 +1678,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:13">
       <c r="C20" s="3">
         <v>19</v>
       </c>
@@ -1699,7 +1713,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:13">
       <c r="C21" s="3">
         <v>20</v>
       </c>
@@ -1731,7 +1745,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:13">
       <c r="C22" s="3">
         <v>21</v>
       </c>
@@ -1766,7 +1780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:13">
       <c r="C23" s="3">
         <v>22</v>
       </c>
@@ -1798,7 +1812,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:13">
       <c r="C24" s="3">
         <v>23</v>
       </c>
@@ -1818,7 +1832,7 @@
         <v>2</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="J24" s="5">
         <v>0</v>
@@ -1827,13 +1841,13 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M24" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:13">
       <c r="C25" s="3">
         <v>24</v>
       </c>
@@ -1853,16 +1867,16 @@
         <v>2</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="J25" s="5">
-        <v>0</v>
-      </c>
-      <c r="K25" s="5">
-        <v>0</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1876,28 +1890,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9">
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="H2" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1910,8 +1927,14 @@
       <c r="F3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1924,13 +1947,33 @@
       <c r="F4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1941,41 +1984,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>20</v>
       </c>

--- a/excel/K卡牌表.xlsx
+++ b/excel/K卡牌表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,7 +11,7 @@
     <sheet name="备注" sheetId="2" r:id="rId2"/>
     <sheet name="参考" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -35,29 +35,35 @@
   <connection id="6" name="CardTemplate_table5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\CardDoc\define\template\excel\CardTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="7" name="SkillTemplate_table" type="4" refreshedVersion="0" background="1">
+  <connection id="7" name="CardTemplate_table6" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\CardDoc\define\template\excel\CardTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="8" name="CardTemplate_table7" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\CardDoc\define\template\excel\CardTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="9" name="SkillTemplate_table" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\data\define\template\excel\SkillTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="8" name="SkillTemplate_table1" type="4" refreshedVersion="0" background="1">
+  <connection id="10" name="SkillTemplate_table1" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\data\define\template\excel\SkillTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="9" name="SkillTemplate_table2" type="4" refreshedVersion="0" background="1">
+  <connection id="11" name="SkillTemplate_table2" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\data\define\template\excel\SkillTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="10" name="SkillTemplate_table3" type="4" refreshedVersion="0" background="1">
+  <connection id="12" name="SkillTemplate_table3" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\data\define\template\excel\SkillTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="11" name="SkillTemplate_table4" type="4" refreshedVersion="0" background="1">
+  <connection id="13" name="SkillTemplate_table4" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\data\define\template\excel\SkillTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="12" name="SkillTemplate_table5" type="4" refreshedVersion="0" background="1">
+  <connection id="14" name="SkillTemplate_table5" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="E:\陈夏凌\doc\data\define\template\excel\SkillTemplate_table.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="150">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -414,19 +420,115 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>消耗所有费，每一费用造成11点伤害，获得X把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回剑护身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回剑护身+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把召唤的剑化为多重护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬天穿云剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬天穿云剑+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>消耗所有费，每一费用造成8点伤害，获得X把幻剑</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗所有费，每一费用造成11点伤害，获得X把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27</t>
+    <t>消耗所有费，对所有敌人造成5*X点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗所有费，对所有敌人造成8*X点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天剑伏魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天剑伏魔+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成27点伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -434,11 +536,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>回剑护身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回剑护身+</t>
+    <t>无极剑炁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无极剑炁+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成12点伤害，无视护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成38点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑灵通虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑灵通虚+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成10点伤害，虚无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成15点伤害，虚无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡正气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡正气+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -446,39 +640,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>把召唤的剑化为多重护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,7 +721,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,39 +743,41 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="12">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -595,10 +787,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,6 +834,8 @@
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nUseTypeParam" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nEffectId" form="unqualified"/>
                               <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="nUpgradeId" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="bExhaust" form="unqualified"/>
+                              <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="bEthereal" form="unqualified"/>
                             </xsd:sequence>
                           </xsd:complexType>
                         </xsd:element>
@@ -656,54 +850,60 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="12" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="6" DataBindingLoadMode="1"/>
+  <Map ID="14" Name="LocalDatas_映射" RootElement="LocalDatas" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="8" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:M25" tableType="xml" totalsRowShown="0" connectionId="6">
-  <autoFilter ref="A1:M25"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O35" tableType="xml" totalsRowShown="0" connectionId="8">
+  <autoFilter ref="A1:O35"/>
+  <tableColumns count="15">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
-      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataExcept" xmlDataType="string"/>
+      <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataExcept" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="nDataDiff" name="nDataDiff">
-      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataDiff" xmlDataType="string"/>
+      <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataDiff" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="nId" name="ID" dataDxfId="9">
-      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nId" xmlDataType="string"/>
+    <tableColumn id="3" uniqueName="nId" name="ID" dataDxfId="11">
+      <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" uniqueName="nJob" name="职业" dataDxfId="8">
-      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nJob" xmlDataType="string"/>
+    <tableColumn id="10" uniqueName="nJob" name="职业" dataDxfId="10">
+      <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nJob" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" uniqueName="szName" name="名称">
-      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/szName" xmlDataType="string"/>
+      <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/szName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="iCost" name="费用" dataDxfId="7">
-      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/iCost" xmlDataType="string"/>
+    <tableColumn id="7" uniqueName="iCost" name="费用" dataDxfId="9">
+      <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/iCost" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="szDesc" name="描述" dataDxfId="6">
-      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/szDesc" xmlDataType="string"/>
+    <tableColumn id="5" uniqueName="szDesc" name="描述" dataDxfId="8">
+      <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/szDesc" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" uniqueName="nType" name="卡牌类型" dataDxfId="5">
-      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nType" xmlDataType="string"/>
+    <tableColumn id="8" uniqueName="nType" name="卡牌类型" dataDxfId="7">
+      <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" uniqueName="nTargetType" name="目标类型" dataDxfId="4">
-      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nTargetType" xmlDataType="string"/>
+    <tableColumn id="13" uniqueName="nTargetType" name="目标类型" dataDxfId="6">
+      <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nTargetType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" uniqueName="nCardUseType" name="卡牌使用条件" dataDxfId="3">
-      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nCardUseType" xmlDataType="string"/>
+    <tableColumn id="11" uniqueName="nCardUseType" name="卡牌使用条件" dataDxfId="5">
+      <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nCardUseType" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" uniqueName="nUseTypeParam" name="使用条件参数" dataDxfId="2">
-      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nUseTypeParam" xmlDataType="string"/>
+    <tableColumn id="12" uniqueName="nUseTypeParam" name="使用条件参数" dataDxfId="4">
+      <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nUseTypeParam" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" uniqueName="nEffectId" name="效果ID" dataDxfId="1">
-      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nEffectId" xmlDataType="string"/>
+    <tableColumn id="9" uniqueName="nEffectId" name="效果ID" dataDxfId="3">
+      <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nEffectId" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" uniqueName="nUpgradeId" name="升级后ID" dataDxfId="0">
-      <xmlColumnPr mapId="12" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nUpgradeId" xmlDataType="string"/>
+    <tableColumn id="6" uniqueName="nUpgradeId" name="升级后ID" dataDxfId="2">
+      <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nUpgradeId" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="14" uniqueName="bExhaust" name="消耗" dataDxfId="1">
+      <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/bExhaust" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="15" uniqueName="bEthereal" name="虚无" dataDxfId="0">
+      <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/bEthereal" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -753,7 +953,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -785,9 +985,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -819,6 +1020,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -994,14 +1196,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -1012,12 +1214,13 @@
     <col min="7" max="7" width="50.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.75" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="13.75" customWidth="1"/>
-    <col min="12" max="12" width="9.25" customWidth="1"/>
-    <col min="13" max="13" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.25" customWidth="1"/>
+    <col min="13" max="13" width="12.125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="7" customWidth="1"/>
+    <col min="15" max="15" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1057,8 +1260,14 @@
       <c r="M1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="5">
@@ -1077,7 +1286,7 @@
       <c r="H2" s="5">
         <v>1</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="5">
         <v>1</v>
       </c>
       <c r="J2" s="5">
@@ -1092,8 +1301,10 @@
       <c r="M2" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="4">
@@ -1112,7 +1323,7 @@
       <c r="H3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="4">
         <v>1</v>
       </c>
       <c r="J3" s="5">
@@ -1125,8 +1336,10 @@
         <v>2</v>
       </c>
       <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4">
@@ -1145,7 +1358,7 @@
       <c r="H4" s="4">
         <v>2</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="4">
         <v>4</v>
       </c>
       <c r="J4" s="5">
@@ -1160,8 +1373,10 @@
       <c r="M4" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5">
@@ -1180,7 +1395,7 @@
       <c r="H5" s="5">
         <v>2</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="5">
         <v>4</v>
       </c>
       <c r="J5" s="5">
@@ -1193,8 +1408,10 @@
         <v>4</v>
       </c>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="5">
@@ -1215,7 +1432,7 @@
       <c r="H6" s="5">
         <v>3</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="5">
         <v>4</v>
       </c>
       <c r="J6" s="5">
@@ -1230,8 +1447,10 @@
       <c r="M6" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5">
@@ -1252,7 +1471,7 @@
       <c r="H7" s="5">
         <v>3</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="5">
         <v>4</v>
       </c>
       <c r="J7" s="5">
@@ -1265,14 +1484,16 @@
         <v>5</v>
       </c>
       <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -1287,7 +1508,7 @@
       <c r="H8" s="5">
         <v>3</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <v>4</v>
       </c>
       <c r="J8" s="5">
@@ -1302,14 +1523,16 @@
       <c r="M8" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5">
         <v>8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -1324,7 +1547,7 @@
       <c r="H9" s="5">
         <v>3</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <v>4</v>
       </c>
       <c r="J9" s="5">
@@ -1337,14 +1560,16 @@
         <v>7</v>
       </c>
       <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="5">
         <v>9</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -1359,7 +1584,7 @@
       <c r="H10" s="5">
         <v>3</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <v>4</v>
       </c>
       <c r="J10" s="5">
@@ -1374,14 +1599,16 @@
       <c r="M10" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5">
         <v>10</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -1396,7 +1623,7 @@
       <c r="H11" s="5">
         <v>3</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <v>4</v>
       </c>
       <c r="J11" s="5">
@@ -1409,15 +1636,19 @@
         <v>8</v>
       </c>
       <c r="M11" s="5"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="C12" s="3">
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="4">
         <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1444,15 +1675,19 @@
       <c r="M12" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="C13" s="3">
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="4">
         <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="1" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1476,15 +1711,20 @@
       <c r="L13" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="C14" s="3">
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="4">
         <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1508,18 +1748,22 @@
       <c r="L14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="C15" s="3">
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="4">
         <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1543,15 +1787,20 @@
       <c r="L15" s="4" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="C16" s="3">
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="4">
         <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1563,7 +1812,7 @@
       <c r="H16" s="5">
         <v>1</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="5">
         <v>1</v>
       </c>
       <c r="J16" s="5">
@@ -1575,18 +1824,22 @@
       <c r="L16" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="3:13">
-      <c r="C17" s="3">
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="4">
         <v>16</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="1" t="s">
         <v>66</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1598,7 +1851,7 @@
       <c r="H17" s="5">
         <v>1</v>
       </c>
-      <c r="I17" s="8">
+      <c r="I17" s="4">
         <v>1</v>
       </c>
       <c r="J17" s="5">
@@ -1610,15 +1863,20 @@
       <c r="L17" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="3">
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="4">
         <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="1" t="s">
         <v>72</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1630,7 +1888,7 @@
       <c r="H18" s="5">
         <v>1</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="4">
         <v>1</v>
       </c>
       <c r="J18" s="5">
@@ -1642,18 +1900,22 @@
       <c r="L18" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="3:13">
-      <c r="C19" s="3">
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="4">
         <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="1" t="s">
         <v>73</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1665,7 +1927,7 @@
       <c r="H19" s="5">
         <v>1</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="4">
         <v>1</v>
       </c>
       <c r="J19" s="5">
@@ -1677,15 +1939,20 @@
       <c r="L19" s="4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="20" spans="3:13">
-      <c r="C20" s="3">
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="4">
         <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="1" t="s">
         <v>78</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -1697,7 +1964,7 @@
       <c r="H20" s="5">
         <v>1</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="4">
         <v>1</v>
       </c>
       <c r="J20" s="5">
@@ -1709,18 +1976,22 @@
       <c r="L20" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="3:13">
-      <c r="C21" s="3">
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="4">
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="1" t="s">
         <v>79</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1732,7 +2003,7 @@
       <c r="H21" s="5">
         <v>1</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="4">
         <v>1</v>
       </c>
       <c r="J21" s="5">
@@ -1744,27 +2015,32 @@
       <c r="L21" s="4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="3:13">
-      <c r="C22" s="3">
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="4">
         <v>21</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>86</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>88</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="H22" s="5">
         <v>1</v>
       </c>
-      <c r="I22" s="8">
+      <c r="I22" s="4">
         <v>1</v>
       </c>
       <c r="J22" s="5">
@@ -1774,32 +2050,36 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="M22" s="3">
+        <v>90</v>
+      </c>
+      <c r="M22" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="3:13">
-      <c r="C23" s="3">
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="4">
         <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="1" t="s">
         <v>87</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>88</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H23" s="5">
         <v>1</v>
       </c>
-      <c r="I23" s="8">
+      <c r="I23" s="4">
         <v>1</v>
       </c>
       <c r="J23" s="5">
@@ -1809,24 +2089,29 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="4">
+        <v>23</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="24" spans="3:13">
-      <c r="C24" s="3">
-        <v>23</v>
-      </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E24" t="s">
-        <v>94</v>
-      </c>
       <c r="F24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H24" s="5">
         <v>2</v>
@@ -1841,43 +2126,428 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="M24" s="3">
+        <v>97</v>
+      </c>
+      <c r="M24" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="3:13">
-      <c r="C25" s="3">
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="4">
         <v>24</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="H25" s="5">
         <v>2</v>
       </c>
       <c r="I25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="5">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
+      <c r="L25" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="4">
+        <v>25</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="5">
-        <v>0</v>
-      </c>
-      <c r="K25" s="5">
-        <v>0</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>98</v>
-      </c>
+      <c r="F26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="5">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" s="5">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5">
+        <v>0</v>
+      </c>
+      <c r="L26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M26" s="4">
+        <v>26</v>
+      </c>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="4">
+        <v>26</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="H27" s="5">
+        <v>1</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="J27" s="5">
+        <v>0</v>
+      </c>
+      <c r="K27" s="5">
+        <v>0</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="4">
+        <v>27</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="5">
+        <v>0</v>
+      </c>
+      <c r="K28" s="5">
+        <v>0</v>
+      </c>
+      <c r="L28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="M28" s="4">
+        <v>28</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="4">
+        <v>28</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="4">
+        <v>29</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J30" s="5">
+        <v>0</v>
+      </c>
+      <c r="K30" s="5">
+        <v>0</v>
+      </c>
+      <c r="L30" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="M30" s="4">
+        <v>30</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="4">
+        <v>30</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C32" s="3">
+        <v>31</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="M32" s="3">
+        <v>32</v>
+      </c>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C33" s="3">
+        <v>32</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J33" s="5">
+        <v>0</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
+      <c r="L33" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C34" s="3">
+        <v>33</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" t="s">
+        <v>137</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M34" s="3">
+        <v>34</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C35" s="3">
+        <v>34</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E35" t="s">
+        <v>138</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="O35" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1890,20 +2560,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1914,7 +2584,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>1</v>
       </c>
@@ -1931,10 +2601,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>2</v>
       </c>
@@ -1951,10 +2621,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>3</v>
       </c>
@@ -1965,15 +2635,15 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1984,41 +2654,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>20</v>
       </c>

--- a/excel/K卡牌表.xlsx
+++ b/excel/K卡牌表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,7 +11,7 @@
     <sheet name="备注" sheetId="2" r:id="rId2"/>
     <sheet name="参考" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -153,522 +153,522 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>阵法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五灵归宗+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑仙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金甲阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金甲阵+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合结束获得4点护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成6点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得5点防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地脉阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地脉阵+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲不在回合结束时消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌使用条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用条件参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天师符法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽3张牌，本回不能再抽牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天师符法+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽4张牌，本回不能再抽牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术宗·无危</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术宗·无危+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得8点防御，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得11点防御，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑心通明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑心通明+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成6点伤害，如果伤害没有被格挡，获得1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害，如果伤害没有被格挡，获得1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻剑决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻剑决+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成8点伤害，获得1把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成12点伤害，获得2把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子母剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子母剑+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害x2，获得2把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害x2，获得3把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无定剑</t>
+  </si>
+  <si>
+    <t>无定剑+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗所有费，每一费用造成11点伤害，获得X把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回剑护身</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回剑护身+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把召唤的剑化为多重护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬天穿云剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬天穿云剑+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗所有费，每一费用造成8点伤害，获得X把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗所有费，对所有敌人造成5*X点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗所有费，对所有敌人造成8*X点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天剑伏魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天剑伏魔+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成27点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无极剑炁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无极剑炁+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成12点伤害，无视护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成38点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑灵通虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑灵通虚+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成10点伤害，虚无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成15点伤害，虚无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡正气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天罡正气+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得1费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>五灵归宗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>阵法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>五灵归宗+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑仙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金甲阵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金甲阵+</t>
+    <t>获得反伤，对攻击者造成等同于护甲减少值一半的伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>每回合结束获得3点护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每回合结束获得4点护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成6点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成9点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得5点防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得8点防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以剑护身，对攻击者造成等同于护甲减少值一半的伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地脉阵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地脉阵+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护甲不在回合结束时消失</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌使用条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用条件参数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天师符法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽3张牌，本回不能再抽牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天师符法+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽4张牌，本回不能再抽牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>术宗·无危</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>术宗·无危+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得8点防御，抽一张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得11点防御，抽一张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑心通明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑心通明+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成6点伤害，如果伤害没有被格挡，获得1费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成9点伤害，如果伤害没有被格挡，获得1费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻剑决</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻剑决+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成8点伤害，获得1把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成12点伤害，获得2把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子母剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子母剑+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成7点伤害x2，获得2把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成9点伤害x2，获得3把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无定剑</t>
-  </si>
-  <si>
-    <t>无定剑+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗所有费，每一费用造成11点伤害，获得X把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回剑护身</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回剑护身+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>把召唤的剑化为多重护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>指定敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有敌人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自己</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悬天穿云剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>悬天穿云剑+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗所有费，每一费用造成8点伤害，获得X把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗所有费，对所有敌人造成5*X点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗所有费，对所有敌人造成8*X点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天剑伏魔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天剑伏魔+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成27点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无极剑炁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无极剑炁+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成12点伤害，无视护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成38点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑灵通虚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑灵通虚+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成10点伤害，虚无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成15点伤害，虚无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天罡正气</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天罡正气+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得1费，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2费，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -750,34 +750,34 @@
   <dxfs count="12">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -787,10 +787,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -953,7 +953,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -985,10 +985,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1020,7 +1019,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1196,14 +1194,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -1220,7 +1218,7 @@
     <col min="15" max="15" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1231,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1246,13 +1244,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>21</v>
@@ -1261,13 +1259,13 @@
         <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="5">
@@ -1281,7 +1279,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H2" s="5">
         <v>1</v>
@@ -1304,7 +1302,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="4">
@@ -1318,7 +1316,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="4">
         <v>1</v>
@@ -1339,7 +1337,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4">
@@ -1353,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4">
         <v>2</v>
@@ -1376,7 +1374,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5">
@@ -1390,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H5" s="5">
         <v>2</v>
@@ -1411,7 +1409,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="5">
@@ -1421,13 +1419,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="H6" s="5">
         <v>3</v>
@@ -1450,7 +1448,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5">
@@ -1460,13 +1458,13 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2">
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>148</v>
       </c>
       <c r="H7" s="5">
         <v>3</v>
@@ -1487,7 +1485,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="5">
@@ -1497,13 +1495,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
       <c r="H8" s="5">
         <v>3</v>
@@ -1526,7 +1524,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5">
@@ -1536,13 +1534,13 @@
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="F9" s="2">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="H9" s="5">
         <v>3</v>
@@ -1563,7 +1561,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="5">
@@ -1573,13 +1571,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2">
         <v>3</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H10" s="5">
         <v>3</v>
@@ -1602,7 +1600,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5">
@@ -1612,13 +1610,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H11" s="5">
         <v>3</v>
@@ -1639,114 +1637,114 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="4">
         <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="H12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="I12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="J12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="4" t="s">
+      <c r="L12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="M12" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="4">
         <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="4">
         <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="J14" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M14" s="4">
         <v>14</v>
@@ -1754,75 +1752,75 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="4">
         <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G15" s="1" t="s">
+      <c r="I15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="K15" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>64</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="4">
         <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="H16" s="5">
-        <v>1</v>
-      </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="M16" s="4">
         <v>16</v>
@@ -1830,60 +1828,60 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>68</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H17" s="5">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0</v>
-      </c>
-      <c r="K17" s="5">
-        <v>0</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>71</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="4">
         <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H18" s="5">
         <v>1</v>
@@ -1898,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M18" s="4">
         <v>18</v>
@@ -1906,23 +1904,23 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="4">
         <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H19" s="5">
         <v>1</v>
@@ -1937,44 +1935,44 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="4">
         <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="5">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="H20" s="5">
-        <v>1</v>
-      </c>
-      <c r="I20" s="4">
-        <v>1</v>
-      </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="M20" s="4">
         <v>20</v>
@@ -1982,60 +1980,60 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="4">
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="5">
+        <v>1</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5">
+        <v>0</v>
+      </c>
+      <c r="L21" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1</v>
-      </c>
-      <c r="I21" s="4">
-        <v>1</v>
-      </c>
-      <c r="J21" s="5">
-        <v>0</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
       <c r="D22" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H22" s="5">
         <v>1</v>
@@ -2050,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="M22" s="4">
         <v>22</v>
@@ -2058,66 +2056,66 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="4">
         <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="5">
+        <v>1</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="5">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5">
+        <v>0</v>
+      </c>
+      <c r="L23" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" s="5">
-        <v>1</v>
-      </c>
-      <c r="I23" s="4">
-        <v>1</v>
-      </c>
-      <c r="J23" s="5">
-        <v>0</v>
-      </c>
-      <c r="K23" s="5">
-        <v>0</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="4">
         <v>23</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="H24" s="5">
         <v>2</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J24" s="5">
         <v>0</v>
@@ -2126,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M24" s="4">
         <v>24</v>
@@ -2134,29 +2132,29 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="4">
         <v>24</v>
       </c>
       <c r="D25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H25" s="5">
         <v>2</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J25" s="5">
         <v>0</v>
@@ -2165,35 +2163,35 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="4">
         <v>25</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H26" s="5">
         <v>1</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J26" s="5">
         <v>0</v>
@@ -2202,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M26" s="4">
         <v>26</v>
@@ -2210,29 +2208,29 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="4">
         <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="H27" s="5">
         <v>1</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J27" s="5">
         <v>0</v>
@@ -2241,35 +2239,35 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="4">
         <v>27</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="H28" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J28" s="5">
         <v>0</v>
@@ -2278,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="M28" s="4">
         <v>28</v>
@@ -2286,29 +2284,29 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="4">
         <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="I29" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J29" s="5">
         <v>0</v>
@@ -2317,35 +2315,35 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="4">
         <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J30" s="5">
         <v>0</v>
@@ -2354,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M30" s="4">
         <v>30</v>
@@ -2362,29 +2360,29 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="4">
         <v>30</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="H31" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J31" s="5">
         <v>0</v>
@@ -2393,33 +2391,33 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15">
       <c r="C32" s="3">
         <v>31</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J32" s="5">
         <v>0</v>
@@ -2428,37 +2426,37 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M32" s="3">
         <v>32</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.15">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15">
       <c r="C33" s="3">
         <v>32</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J33" s="5">
         <v>0</v>
@@ -2467,85 +2465,85 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15">
       <c r="C34" s="3">
         <v>33</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="L34" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="K34" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="M34" s="3">
         <v>34</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O34" s="4"/>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:15">
       <c r="C35" s="3">
         <v>34</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="J35" s="4" t="s">
+      <c r="L35" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="K35" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="N35" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="O35" s="4"/>
     </row>
@@ -2560,31 +2558,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9">
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2595,16 +2593,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2615,35 +2613,35 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2654,41 +2652,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>20</v>
       </c>

--- a/excel/K卡牌表.xlsx
+++ b/excel/K卡牌表.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="169">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -644,23 +644,97 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气宗·无招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成6点伤害，目标获得易伤1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成8点伤害，目标获得易伤2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七伤剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七伤剑+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气宗·无招+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成35点伤害，自身虚弱1回合，脆弱1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成45点伤害，自身虚弱2回合，脆弱1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -857,8 +931,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O35" tableType="xml" totalsRowShown="0" connectionId="8">
-  <autoFilter ref="A1:O35"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O39" tableType="xml" totalsRowShown="0" connectionId="8">
+  <autoFilter ref="A1:O39"/>
   <tableColumns count="15">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -1197,10 +1271,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2485,7 +2559,7 @@
         <v>137</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>139</v>
@@ -2500,10 +2574,10 @@
         <v>143</v>
       </c>
       <c r="K34" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="L34" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="M34" s="3">
         <v>34</v>
@@ -2524,7 +2598,7 @@
         <v>138</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>140</v>
@@ -2536,18 +2610,160 @@
         <v>142</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>143</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>117</v>
       </c>
       <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C36" s="3">
+        <v>35</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E36" t="s">
+        <v>151</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="M36" s="3">
+        <v>36</v>
+      </c>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C37" s="3">
+        <v>36</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L37" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C38" s="3">
+        <v>37</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="M38" s="3">
+        <v>38</v>
+      </c>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C39" s="3">
+        <v>38</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" t="s">
+        <v>157</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K39" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L39" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/K卡牌表.xlsx
+++ b/excel/K卡牌表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -185,26 +185,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每回合结束获得4点护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成6点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成9点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得5点防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得8点防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>地脉阵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -289,14 +269,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得8点防御，抽一张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得11点防御，抽一张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -321,18 +293,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成6点伤害，如果伤害没有被格挡，获得1费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成9点伤害，如果伤害没有被格挡，获得1费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,14 +313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成8点伤害，获得1把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成12点伤害，获得2把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,14 +329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成7点伤害x2，获得2把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成9点伤害x2，获得3把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -408,10 +356,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗所有费，每一费用造成11点伤害，获得X把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -476,18 +420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>消耗所有费，每一费用造成8点伤害，获得X把幻剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗所有费，对所有敌人造成5*X点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消耗所有费，对所有敌人造成8*X点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -516,10 +448,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成27点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -540,14 +468,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成12点伤害，无视护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成38点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -584,14 +504,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成10点伤害，虚无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成15点伤害，虚无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -660,10 +572,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>每回合结束获得3点护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -672,10 +580,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成6点伤害，目标获得易伤1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -699,10 +603,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成8点伤害，目标获得易伤2回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
@@ -714,10 +614,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成35点伤害，自身虚弱1回合，脆弱1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -734,19 +630,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成45点伤害，自身虚弱2回合，脆弱1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a6#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a9#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得#d5#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得#d8#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合结束获得#s3#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合结束获得#s4#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得#d8#，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得#d11#，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a6#，如果伤害没有被格挡，获得1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a9#，如果伤害没有被格挡，获得1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a8#，获得1把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a12#，获得2把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a7#x2，获得2把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a9#x2，获得3把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗所有费，每一费用造成#a8#，获得X把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗所有费，每一费用造成#a11#，获得X把幻剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗所有费，对所有敌人造成X*#a5#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗所有费，对所有敌人造成X*#a8#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a27#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a38#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a12#，无视护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a10#，虚无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a15#，虚无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a6#，目标获得易伤1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a8#，目标获得易伤2回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a35#，自身虚弱1回合，脆弱1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a45#，自身虚弱2回合，脆弱1回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,34 +828,34 @@
   <dxfs count="12">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -865,10 +865,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1031,7 +1031,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1063,10 +1063,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1098,7 +1097,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1274,14 +1272,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -1298,7 +1296,7 @@
     <col min="15" max="15" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1324,13 +1322,13 @@
         <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>21</v>
@@ -1339,13 +1337,13 @@
         <v>8</v>
       </c>
       <c r="N1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="O1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="5">
@@ -1359,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="H2" s="5">
         <v>1</v>
@@ -1382,7 +1380,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="4">
@@ -1396,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>144</v>
       </c>
       <c r="H3" s="4">
         <v>1</v>
@@ -1417,7 +1415,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4">
@@ -1431,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="H4" s="4">
         <v>2</v>
@@ -1454,7 +1452,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5">
@@ -1468,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="H5" s="5">
         <v>2</v>
@@ -1489,7 +1487,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="5">
@@ -1499,13 +1497,13 @@
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="F6" s="2">
         <v>3</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="H6" s="5">
         <v>3</v>
@@ -1528,7 +1526,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5">
@@ -1544,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="H7" s="5">
         <v>3</v>
@@ -1565,7 +1563,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="5">
@@ -1581,7 +1579,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H8" s="5">
         <v>3</v>
@@ -1604,7 +1602,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5">
@@ -1620,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="H9" s="5">
         <v>3</v>
@@ -1641,7 +1639,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="5">
@@ -1651,13 +1649,13 @@
         <v>1</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2">
         <v>3</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H10" s="5">
         <v>3</v>
@@ -1680,7 +1678,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5">
@@ -1690,13 +1688,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F11" s="2">
         <v>2</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H11" s="5">
         <v>3</v>
@@ -1717,114 +1715,114 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="4">
         <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="J12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="L12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="M12" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="4">
         <v>12</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="4">
         <v>13</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>56</v>
+        <v>149</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M14" s="4">
         <v>14</v>
@@ -1832,60 +1830,60 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="4">
         <v>14</v>
       </c>
       <c r="D15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="L15" s="4" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M15" s="4"/>
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="4">
         <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="H16" s="5">
         <v>1</v>
@@ -1900,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="M16" s="4">
         <v>16</v>
@@ -1908,23 +1906,23 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="4">
         <v>16</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="H17" s="5">
         <v>1</v>
@@ -1939,29 +1937,29 @@
         <v>0</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M17" s="4"/>
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="4">
         <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="H18" s="5">
         <v>1</v>
@@ -1976,7 +1974,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="M18" s="4">
         <v>18</v>
@@ -1984,23 +1982,23 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="4">
         <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="H19" s="5">
         <v>1</v>
@@ -2015,29 +2013,29 @@
         <v>0</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="4">
         <v>19</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="H20" s="5">
         <v>1</v>
@@ -2052,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="M20" s="4">
         <v>20</v>
@@ -2060,23 +2058,23 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="4">
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="H21" s="5">
         <v>1</v>
@@ -2091,29 +2089,29 @@
         <v>0</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="4">
         <v>21</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="H22" s="5">
         <v>1</v>
@@ -2128,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="M22" s="4">
         <v>22</v>
@@ -2136,23 +2134,23 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="4">
         <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="H23" s="5">
         <v>1</v>
@@ -2167,35 +2165,35 @@
         <v>0</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="4">
         <v>23</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="H24" s="5">
         <v>2</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J24" s="5">
         <v>0</v>
@@ -2204,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="M24" s="4">
         <v>24</v>
@@ -2212,29 +2210,29 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="4">
         <v>24</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="H25" s="5">
         <v>2</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="J25" s="5">
         <v>0</v>
@@ -2243,35 +2241,35 @@
         <v>0</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="4">
         <v>25</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>104</v>
+        <v>159</v>
       </c>
       <c r="H26" s="5">
         <v>1</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="J26" s="5">
         <v>0</v>
@@ -2280,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="M26" s="4">
         <v>26</v>
@@ -2288,29 +2286,29 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="4">
         <v>26</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>105</v>
+        <v>160</v>
       </c>
       <c r="H27" s="5">
         <v>1</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="J27" s="5">
         <v>0</v>
@@ -2319,35 +2317,35 @@
         <v>0</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="4">
         <v>27</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="J28" s="5">
         <v>0</v>
@@ -2356,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="M28" s="4">
         <v>28</v>
@@ -2364,29 +2362,29 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="4">
         <v>28</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="J29" s="5">
         <v>0</v>
@@ -2395,35 +2393,35 @@
         <v>0</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="4">
         <v>29</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="J30" s="5">
         <v>0</v>
@@ -2432,7 +2430,7 @@
         <v>0</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="M30" s="4">
         <v>30</v>
@@ -2440,29 +2438,29 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="4">
         <v>30</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="J31" s="5">
         <v>0</v>
@@ -2471,33 +2469,33 @@
         <v>0</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15">
       <c r="C32" s="3">
         <v>31</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="J32" s="5">
         <v>0</v>
@@ -2506,37 +2504,37 @@
         <v>0</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="M32" s="3">
         <v>32</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15">
       <c r="C33" s="3">
         <v>32</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E33" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="J33" s="5">
         <v>0</v>
@@ -2545,118 +2543,118 @@
         <v>0</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15">
       <c r="C34" s="3">
         <v>33</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E34" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="M34" s="3">
         <v>34</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="O34" s="4"/>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:15">
       <c r="C35" s="3">
         <v>34</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="H35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="J35" s="4" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="O35" s="4"/>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:15">
       <c r="C36" s="3">
         <v>35</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="M36" s="3">
         <v>36</v>
@@ -2664,70 +2662,70 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:15">
       <c r="C37" s="3">
         <v>36</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="E37" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:15">
       <c r="C38" s="3">
         <v>37</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>162</v>
+        <v>137</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="M38" s="3">
         <v>38</v>
@@ -2735,36 +2733,36 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:15">
       <c r="C39" s="3">
         <v>38</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="E39" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -2780,20 +2778,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:9">
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
@@ -2801,10 +2799,10 @@
         <v>27</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2821,10 +2819,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2841,10 +2839,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
       <c r="B5">
         <v>3</v>
       </c>
@@ -2855,15 +2853,15 @@
         <v>3</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="H6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2874,41 +2872,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:2">
       <c r="B3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:2">
       <c r="B5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:2">
       <c r="B7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>20</v>
       </c>

--- a/excel/K卡牌表.xlsx
+++ b/excel/K卡牌表.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,7 +11,7 @@
     <sheet name="备注" sheetId="2" r:id="rId2"/>
     <sheet name="参考" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="188">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -739,14 +739,85 @@
   </si>
   <si>
     <t>造成#a45#，自身虚弱2回合，脆弱1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术宗·定心术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术宗·定心术+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万剑归宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万剑归宗+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽牌，直到抽到的牌不是攻击牌,消耗</t>
+  </si>
+  <si>
+    <t>抽牌，直到抽到的牌不是攻击牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去4点生命，抽2张牌，获得4点护甲，获得2费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去4点生命，抽3张牌，获得6点护甲，获得2费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,34 +899,34 @@
   <dxfs count="12">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -865,10 +936,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -935,8 +1006,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O39" tableType="xml" totalsRowShown="0" connectionId="8">
-  <autoFilter ref="A1:O39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O43" tableType="xml" totalsRowShown="0" connectionId="8">
+  <autoFilter ref="A1:O43"/>
   <tableColumns count="15">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -1031,7 +1102,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1063,9 +1134,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1097,6 +1169,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1272,14 +1345,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
@@ -1296,7 +1369,7 @@
     <col min="15" max="15" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1343,7 +1416,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="5">
@@ -1380,7 +1453,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="4">
@@ -1415,7 +1488,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="4">
@@ -1452,7 +1525,7 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="5">
@@ -1487,7 +1560,7 @@
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="5">
@@ -1526,7 +1599,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="5">
@@ -1563,7 +1636,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="5">
@@ -1602,7 +1675,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="5">
@@ -1639,7 +1712,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="5">
@@ -1678,7 +1751,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="5">
@@ -1715,7 +1788,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="4">
@@ -1754,7 +1827,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="4">
@@ -1791,7 +1864,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="4">
@@ -1830,7 +1903,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="4">
@@ -1867,7 +1940,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="4">
@@ -1906,7 +1979,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="4">
@@ -1943,7 +2016,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="4">
@@ -1982,7 +2055,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="4">
@@ -2019,7 +2092,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="4">
@@ -2058,7 +2131,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="4">
@@ -2095,7 +2168,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="4">
@@ -2134,7 +2207,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="4">
@@ -2171,7 +2244,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="4">
@@ -2210,7 +2283,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="4">
@@ -2247,7 +2320,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="4">
@@ -2286,7 +2359,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="4">
@@ -2323,7 +2396,7 @@
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="4">
@@ -2362,7 +2435,7 @@
       <c r="N28" s="4"/>
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="4">
@@ -2399,7 +2472,7 @@
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="4">
@@ -2438,7 +2511,7 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="4">
@@ -2475,7 +2548,7 @@
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C32" s="3">
         <v>31</v>
       </c>
@@ -2514,7 +2587,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="3:15">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C33" s="3">
         <v>32</v>
       </c>
@@ -2550,7 +2623,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="3:15">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C34" s="3">
         <v>33</v>
       </c>
@@ -2589,7 +2662,7 @@
       </c>
       <c r="O34" s="4"/>
     </row>
-    <row r="35" spans="3:15">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C35" s="3">
         <v>34</v>
       </c>
@@ -2625,7 +2698,7 @@
       </c>
       <c r="O35" s="4"/>
     </row>
-    <row r="36" spans="3:15">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C36" s="3">
         <v>35</v>
       </c>
@@ -2662,7 +2735,7 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
     </row>
-    <row r="37" spans="3:15">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C37" s="3">
         <v>36</v>
       </c>
@@ -2696,7 +2769,7 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
     </row>
-    <row r="38" spans="3:15">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C38" s="3">
         <v>37</v>
       </c>
@@ -2733,7 +2806,7 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
     </row>
-    <row r="39" spans="3:15">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C39" s="3">
         <v>38</v>
       </c>
@@ -2766,6 +2839,148 @@
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C40" s="3">
+        <v>39</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" t="s">
+        <v>170</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C41" s="3">
+        <v>40</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E41" t="s">
+        <v>171</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C42" s="3">
+        <v>41</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" t="s">
+        <v>177</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C43" s="3">
+        <v>42</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="L43" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2778,20 +2993,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
@@ -2802,7 +3017,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2822,7 +3037,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="2:9">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>2</v>
       </c>
@@ -2842,7 +3057,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>3</v>
       </c>
@@ -2856,7 +3071,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="H6">
         <v>4</v>
       </c>
@@ -2872,41 +3087,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>20</v>
       </c>

--- a/excel/K卡牌表.xlsx
+++ b/excel/K卡牌表.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="217">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -734,27 +734,170 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>造成#a45#，自身虚弱2回合，脆弱1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术宗·定心术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>术宗·定心术+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万剑归宗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万剑归宗+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽牌，直到抽到的牌不是攻击牌,消耗</t>
+  </si>
+  <si>
+    <t>抽牌，直到抽到的牌不是攻击牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼气凝神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续5回合，每回合额外获得1费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续3回合，每回合额外获得1费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌机制：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮回（该卡牌打出后，会立刻回到你的手牌）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉底（该卡牌一定是在最后一张牌，多张沉底牌则随机排在末尾）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空凝剑术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空凝剑术+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>造成#a35#，自身虚弱1回合，脆弱1回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>造成#a45#，自身虚弱2回合，脆弱1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>术宗·定心术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>术宗·定心术+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
+    <t>造成#a8#，如果身上有幻剑，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a10#，如果身上有幻剑，抽一张牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -762,54 +905,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万剑归宗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万剑归宗+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽牌，直到抽到的牌不是攻击牌,消耗</t>
-  </si>
-  <si>
-    <t>抽牌，直到抽到的牌不是攻击牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去4点生命，抽2张牌，获得4点护甲，获得2费，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去4点生命，抽3张牌，获得6点护甲，获得2费，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>57</t>
+    <t>失去4点生命，抽2张牌，获得#s4#，获得2费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去4点生命，抽3张牌，获得#s6#，获得2费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼气凝神+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1006,8 +1122,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O43" tableType="xml" totalsRowShown="0" connectionId="8">
-  <autoFilter ref="A1:O43"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O47" tableType="xml" totalsRowShown="0" connectionId="8">
+  <autoFilter ref="A1:O47"/>
   <tableColumns count="15">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -1346,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2019,8 +2135,8 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-      <c r="C18" s="4">
-        <v>17</v>
+      <c r="C18" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>36</v>
@@ -2783,7 +2899,7 @@
         <v>137</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>127</v>
@@ -2820,7 +2936,7 @@
         <v>141</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>129</v>
@@ -2848,19 +2964,19 @@
         <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>183</v>
+        <v>211</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>131</v>
@@ -2869,7 +2985,10 @@
         <v>131</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
+      </c>
+      <c r="M40" s="3">
+        <v>40</v>
       </c>
       <c r="N40" s="4" t="s">
         <v>36</v>
@@ -2884,13 +3003,13 @@
         <v>127</v>
       </c>
       <c r="E41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>38</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>184</v>
+        <v>212</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>40</v>
@@ -2905,10 +3024,10 @@
         <v>131</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O41" s="4"/>
     </row>
@@ -2920,13 +3039,13 @@
         <v>36</v>
       </c>
       <c r="E42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>40</v>
@@ -2941,7 +3060,10 @@
         <v>131</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
+      </c>
+      <c r="M42" s="3">
+        <v>42</v>
       </c>
       <c r="N42" s="4" t="s">
         <v>36</v>
@@ -2953,22 +3075,22 @@
         <v>42</v>
       </c>
       <c r="D43" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E43" t="s">
-        <v>178</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>40</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>131</v>
@@ -2977,10 +3099,156 @@
         <v>131</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C44" s="3">
+        <v>43</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="M44" s="3">
+        <v>44</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O44" s="4"/>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C45" s="3">
+        <v>44</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E45" t="s">
+        <v>215</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C46" s="3">
+        <v>45</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="E46" t="s">
+        <v>205</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="M46" s="3">
+        <v>46</v>
+      </c>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C47" s="3">
+        <v>46</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E47" t="s">
+        <v>206</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3088,42 +3356,55 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B8"/>
+  <dimension ref="A3:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/excel/K卡牌表.xlsx
+++ b/excel/K卡牌表.xlsx
@@ -881,51 +881,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>虚空凝剑术+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a35#，自身虚弱1回合，脆弱1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a8#，如果身上有幻剑，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a10#，如果身上有幻剑，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼气凝神+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>虚空凝剑术</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>虚空凝剑术+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成#a35#，自身虚弱1回合，脆弱1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成#a8#，如果身上有幻剑，抽一张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成#a10#，如果身上有幻剑，抽一张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去4点生命，抽2张牌，获得#s4#，获得2费，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去4点生命，抽3张牌，获得#s6#，获得2费，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼气凝神+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
+    <t>失去4点生命，抽2张牌，获得#d4#，获得2费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去4点生命，抽3张牌，获得#d6#，获得2费，消耗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1464,8 +1464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2136,7 +2136,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>36</v>
@@ -2899,7 +2899,7 @@
         <v>137</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>127</v>
@@ -2970,7 +2970,7 @@
         <v>171</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>40</v>
@@ -3009,7 +3009,7 @@
         <v>38</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>40</v>
@@ -3151,7 +3151,7 @@
         <v>186</v>
       </c>
       <c r="E45" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>186</v>
@@ -3187,13 +3187,13 @@
         <v>204</v>
       </c>
       <c r="E46" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>186</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>186</v>
@@ -3208,7 +3208,7 @@
         <v>196</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M46" s="3">
         <v>46</v>
@@ -3224,16 +3224,16 @@
         <v>186</v>
       </c>
       <c r="E47" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>185</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>209</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>36</v>
@@ -3245,7 +3245,7 @@
         <v>196</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>

--- a/excel/K卡牌表.xlsx
+++ b/excel/K卡牌表.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="225">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -926,6 +926,38 @@
   </si>
   <si>
     <t>失去4点生命，抽3张牌，获得#d6#，获得2费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的剑袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽一张牌，如果抽到的是攻击牌，再次执行该效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽一张牌，如果抽到的是攻击牌，再次执行该效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的剑袋+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1122,8 +1154,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O47" tableType="xml" totalsRowShown="0" connectionId="8">
-  <autoFilter ref="A1:O47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O49" tableType="xml" totalsRowShown="0" connectionId="8">
+  <autoFilter ref="A1:O49"/>
   <tableColumns count="15">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -1462,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O47"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3249,6 +3281,79 @@
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C48" s="3">
+        <v>47</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E48" t="s">
+        <v>217</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L48" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="M48" s="3">
+        <v>48</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="O48" s="4"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C49" s="3">
+        <v>48</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" t="s">
+        <v>224</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/K卡牌表.xlsx
+++ b/excel/K卡牌表.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="224">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -766,14 +766,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>万剑归宗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万剑归宗+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -782,10 +774,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽牌，直到抽到的牌不是攻击牌,消耗</t>
-  </si>
-  <si>
-    <t>抽牌，直到抽到的牌不是攻击牌</t>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼气凝神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -793,11 +794,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>57</t>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续5回合，每回合额外获得1费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续3回合，每回合额外获得1费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌机制：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮回（该卡牌打出后，会立刻回到你的手牌）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉底（该卡牌一定是在最后一张牌，多张沉底牌则随机排在末尾）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -805,95 +846,83 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>虚空凝剑术+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a35#，自身虚弱1回合，脆弱1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a8#，如果身上有幻剑，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a10#，如果身上有幻剑，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼气凝神+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空凝剑术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去4点生命，抽2张牌，获得#d4#，获得2费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去4点生命，抽3张牌，获得#d6#，获得2费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的剑袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>炼气凝神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后续5回合，每回合额外获得1费，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后续3回合，每回合额外获得1费，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌机制：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮回（该卡牌打出后，会立刻回到你的手牌）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉底（该卡牌一定是在最后一张牌，多张沉底牌则随机排在末尾）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>虚空凝剑术+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成#a35#，自身虚弱1回合，脆弱1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成#a8#，如果身上有幻剑，抽一张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成#a10#，如果身上有幻剑，抽一张牌</t>
+    <t>抽一张牌，如果抽到的是攻击牌，再次执行该效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽一张牌，如果抽到的是攻击牌，再次执行该效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的剑袋+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -901,63 +930,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼气凝神+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空凝剑术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去4点生命，抽2张牌，获得#d4#，获得2费，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去4点生命，抽3张牌，获得#d6#，获得2费，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨大的剑袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽一张牌，如果抽到的是攻击牌，再次执行该效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽一张牌，如果抽到的是攻击牌，再次执行该效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨大的剑袋+</t>
+    <t>快剑诀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快剑诀+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成4点伤害，抽一张牌，如果抽到的是攻击牌，获得1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害，抽一张牌，如果抽到的是攻击牌，获得1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1496,8 +1493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2168,7 +2165,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>36</v>
@@ -2931,7 +2928,7 @@
         <v>137</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>127</v>
@@ -3002,7 +2999,7 @@
         <v>171</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>40</v>
@@ -3041,7 +3038,7 @@
         <v>38</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>40</v>
@@ -3065,244 +3062,244 @@
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C42" s="3">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="E42" t="s">
+        <v>179</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="K42" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="L42" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="M42" s="3">
+        <v>44</v>
+      </c>
+      <c r="N42" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="M42" s="3">
-        <v>42</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C43" s="3">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E43" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="G43" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H43" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="I43" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>131</v>
+        <v>187</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="N43" s="4"/>
+        <v>189</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C44" s="3">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D44" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E44" t="s">
+        <v>205</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E44" t="s">
-        <v>188</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="K44" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="L44" s="4" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M44" s="3">
-        <v>44</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>185</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="N44" s="4"/>
       <c r="O44" s="4"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C45" s="3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E45" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>199</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>192</v>
+        <v>36</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>186</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N45" s="4"/>
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C46" s="3">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="E46" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M46" s="3">
-        <v>46</v>
-      </c>
-      <c r="N46" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C47" s="3">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>186</v>
+        <v>36</v>
       </c>
       <c r="E47" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>196</v>
+        <v>38</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C48" s="3">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E48" t="s">
+        <v>218</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E48" t="s">
-        <v>217</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>38</v>
@@ -3314,34 +3311,32 @@
         <v>222</v>
       </c>
       <c r="M48" s="3">
-        <v>48</v>
-      </c>
-      <c r="N48" s="4" t="s">
-        <v>218</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="N48" s="4"/>
       <c r="O48" s="4"/>
     </row>
     <row r="49" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C49" s="3">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D49" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E49" t="s">
+        <v>219</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E49" t="s">
-        <v>224</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="G49" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>38</v>
@@ -3501,15 +3496,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B10" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/excel/K卡牌表.xlsx
+++ b/excel/K卡牌表.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="233">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -955,6 +955,41 @@
   </si>
   <si>
     <t>69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻剑天引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻剑天引+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，获得2把幻剑</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1151,8 +1186,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O49" tableType="xml" totalsRowShown="0" connectionId="8">
-  <autoFilter ref="A1:O49"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O51" tableType="xml" totalsRowShown="0" connectionId="8">
+  <autoFilter ref="A1:O51"/>
   <tableColumns count="15">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -1491,10 +1526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3047,7 +3082,7 @@
         <v>52</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>131</v>
@@ -3062,137 +3097,135 @@
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C42" s="3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>179</v>
+        <v>224</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>191</v>
+        <v>228</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>186</v>
+        <v>231</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="M42" s="3">
-        <v>44</v>
-      </c>
-      <c r="N42" s="4" t="s">
-        <v>176</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="N42" s="4"/>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C43" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="E43" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>177</v>
+        <v>227</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>187</v>
+        <v>232</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>177</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N43" s="4"/>
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C44" s="3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="E44" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="M44" s="3">
-        <v>46</v>
-      </c>
-      <c r="N44" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="O44" s="4"/>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C45" s="3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>177</v>
       </c>
       <c r="E45" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>185</v>
@@ -3201,105 +3234,105 @@
         <v>187</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="N45" s="4"/>
+        <v>189</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>177</v>
+      </c>
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C46" s="3">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D46" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" t="s">
+        <v>205</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I46" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E46" t="s">
-        <v>208</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I46" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="J46" s="4" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="M46" s="3">
-        <v>48</v>
-      </c>
-      <c r="N46" s="4" t="s">
-        <v>209</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="N46" s="4"/>
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C47" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D47" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="E47" t="s">
+        <v>196</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E47" t="s">
-        <v>215</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="J47" s="4" t="s">
-        <v>38</v>
+        <v>185</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>38</v>
+        <v>187</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C48" s="3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>216</v>
+        <v>36</v>
       </c>
       <c r="E48" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>36</v>
+        <v>209</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>38</v>
@@ -3308,35 +3341,37 @@
         <v>38</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="M48" s="3">
-        <v>50</v>
-      </c>
-      <c r="N48" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>209</v>
+      </c>
       <c r="O48" s="4"/>
     </row>
     <row r="49" spans="3:15" x14ac:dyDescent="0.15">
       <c r="C49" s="3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>217</v>
+        <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="J49" s="4" t="s">
         <v>38</v>
@@ -3345,10 +3380,81 @@
         <v>38</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C50" s="3">
+        <v>49</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E50" t="s">
+        <v>218</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="M50" s="3">
+        <v>50</v>
+      </c>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C51" s="3">
+        <v>50</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E51" t="s">
+        <v>219</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L51" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/K卡牌表.xlsx
+++ b/excel/K卡牌表.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="248">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -826,170 +826,230 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>卡牌机制：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轮回（该卡牌打出后，会立刻回到你的手牌）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沉底（该卡牌一定是在最后一张牌，多张沉底牌则随机排在末尾）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空凝剑术+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a35#，自身虚弱1回合，脆弱1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a8#，如果身上有幻剑，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成#a10#，如果身上有幻剑，抽一张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼气凝神+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空凝剑术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去4点生命，抽2张牌，获得#d4#，获得2费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失去4点生命，抽3张牌，获得#d6#，获得2费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的剑袋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽一张牌，如果抽到的是攻击牌，再次执行该效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大的剑袋+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快剑诀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快剑诀+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成4点伤害，抽一张牌，如果抽到的是攻击牌，获得1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害，抽一张牌，如果抽到的是攻击牌，获得1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻剑天引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻剑天引+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时，获得2把幻剑</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千方残光剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千方残光剑+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成与护甲值相同的伤害，并清所有护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戾血剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>戾血剑+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害，如果敌方被击杀，回复造成伤害值的生命，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害，如果敌方被击杀，回复造成伤害值的生命，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>后续3回合，每回合额外获得1费，消耗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>卡牌机制：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轮回（该卡牌打出后，会立刻回到你的手牌）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>沉底（该卡牌一定是在最后一张牌，多张沉底牌则随机排在末尾）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空凝剑术+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成#a35#，自身虚弱1回合，脆弱1回合</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成#a8#，如果身上有幻剑，抽一张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成#a10#，如果身上有幻剑，抽一张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炼气凝神+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空凝剑术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去4点生命，抽2张牌，获得#d4#，获得2费，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失去4点生命，抽3张牌，获得#d6#，获得2费，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨大的剑袋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽一张牌，如果抽到的是攻击牌，再次执行该效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽一张牌，如果抽到的是攻击牌，再次执行该效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨大的剑袋+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快剑诀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>快剑诀+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成4点伤害，抽一张牌，如果抽到的是攻击牌，获得1费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成7点伤害，抽一张牌，如果抽到的是攻击牌，获得1费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻剑天引</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幻剑天引+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回合开始时，获得2把幻剑</t>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
+    <t>抽一张牌，如果抽到的是攻击牌，再次执行该效果，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1186,8 +1246,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O51" tableType="xml" totalsRowShown="0" connectionId="8">
-  <autoFilter ref="A1:O51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O55" tableType="xml" totalsRowShown="0" connectionId="8">
+  <autoFilter ref="A1:O55"/>
   <tableColumns count="15">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -1526,10 +1586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2200,7 +2260,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>36</v>
@@ -2963,7 +3023,7 @@
         <v>137</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>127</v>
@@ -3034,7 +3094,7 @@
         <v>171</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>40</v>
@@ -3073,7 +3133,7 @@
         <v>38</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>40</v>
@@ -3103,28 +3163,28 @@
         <v>127</v>
       </c>
       <c r="E42" t="s">
+        <v>222</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="J42" s="5">
+        <v>0</v>
+      </c>
+      <c r="K42" s="5">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J42" s="5">
-        <v>0</v>
-      </c>
-      <c r="K42" s="5">
-        <v>0</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>230</v>
       </c>
       <c r="M42" s="3">
         <v>42</v>
@@ -3140,28 +3200,28 @@
         <v>127</v>
       </c>
       <c r="E43" t="s">
+        <v>223</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="G43" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43" s="5">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="J43" s="5">
-        <v>0</v>
-      </c>
-      <c r="K43" s="5">
-        <v>0</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>230</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -3180,7 +3240,7 @@
         <v>178</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>180</v>
@@ -3213,7 +3273,7 @@
         <v>177</v>
       </c>
       <c r="E45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>177</v>
@@ -3246,16 +3306,16 @@
         <v>45</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E46" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>177</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>177</v>
@@ -3270,7 +3330,7 @@
         <v>187</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M46" s="3">
         <v>46</v>
@@ -3286,16 +3346,16 @@
         <v>177</v>
       </c>
       <c r="E47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>176</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H47" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>36</v>
@@ -3307,7 +3367,7 @@
         <v>187</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -3320,13 +3380,13 @@
         <v>36</v>
       </c>
       <c r="E48" t="s">
+        <v>207</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="G48" s="1" t="s">
-        <v>212</v>
+        <v>245</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>40</v>
@@ -3341,13 +3401,13 @@
         <v>38</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M48" s="3">
         <v>48</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="O48" s="4"/>
     </row>
@@ -3359,13 +3419,13 @@
         <v>36</v>
       </c>
       <c r="E49" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F49" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>40</v>
@@ -3380,7 +3440,7 @@
         <v>38</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
@@ -3390,16 +3450,16 @@
         <v>49</v>
       </c>
       <c r="D50" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E50" t="s">
         <v>216</v>
-      </c>
-      <c r="E50" t="s">
-        <v>218</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>36</v>
@@ -3414,7 +3474,7 @@
         <v>38</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M50" s="3">
         <v>50</v>
@@ -3427,16 +3487,16 @@
         <v>50</v>
       </c>
       <c r="D51" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E51" t="s">
         <v>217</v>
-      </c>
-      <c r="E51" t="s">
-        <v>219</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H51" s="4" t="s">
         <v>36</v>
@@ -3451,10 +3511,156 @@
         <v>38</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C52" s="3">
+        <v>51</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="E52" t="s">
+        <v>233</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K52" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L52" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="M52" s="3">
+        <v>52</v>
+      </c>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C53" s="3">
+        <v>52</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E53" t="s">
+        <v>234</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K53" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L53" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C54" s="3">
+        <v>53</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="E54" t="s">
+        <v>239</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K54" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="M54" s="3">
+        <v>54</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="O54" s="4"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C55" s="3">
+        <v>54</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E55" t="s">
+        <v>240</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K55" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L55" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="O55" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3602,15 +3808,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B10" t="s">
         <v>192</v>
-      </c>
-      <c r="B10" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/excel/K卡牌表.xlsx
+++ b/excel/K卡牌表.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="256">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1050,6 +1050,38 @@
   </si>
   <si>
     <t>76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太乙分光剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太乙分光剑+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成7点伤害，如果有幻剑，消耗一把幻剑，额外造成1点伤害2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成9点伤害，如果有幻剑，消耗一把幻剑，额外造成2点伤害2次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1246,8 +1278,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O55" tableType="xml" totalsRowShown="0" connectionId="8">
-  <autoFilter ref="A1:O55"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O57" tableType="xml" totalsRowShown="0" connectionId="8">
+  <autoFilter ref="A1:O57"/>
   <tableColumns count="15">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -1586,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3661,6 +3693,77 @@
         <v>232</v>
       </c>
       <c r="O55" s="4"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C56" s="3">
+        <v>55</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E56" t="s">
+        <v>248</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="J56" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K56" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L56" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="M56" s="3">
+        <v>56</v>
+      </c>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C57" s="3">
+        <v>56</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E57" t="s">
+        <v>249</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="J57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel/K卡牌表.xlsx
+++ b/excel/K卡牌表.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="275">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1082,6 +1082,82 @@
   </si>
   <si>
     <t>81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻剑三式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻剑三式+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2把幻剑，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3把幻剑，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心如止水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心如止水+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解除所有负面状态，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1278,8 +1354,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O57" tableType="xml" totalsRowShown="0" connectionId="8">
-  <autoFilter ref="A1:O57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:O61" tableType="xml" totalsRowShown="0" connectionId="8">
+  <autoFilter ref="A1:O61"/>
   <tableColumns count="15">
     <tableColumn id="1" uniqueName="nDataExcept" name="nDataExcept">
       <xmlColumnPr mapId="14" xpath="/LocalDatas/LocalData/g_CardTemplate/entry/nDataExcept" xmlDataType="string"/>
@@ -1618,10 +1694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3764,6 +3840,156 @@
       </c>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C58" s="3">
+        <v>57</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E58" t="s">
+        <v>256</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J58" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K58" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="M58" s="3">
+        <v>58</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O58" s="4"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C59" s="3">
+        <v>58</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E59" t="s">
+        <v>257</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J59" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K59" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L59" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="N59" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="O59" s="4"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C60" s="3">
+        <v>59</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E60" t="s">
+        <v>267</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J60" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K60" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L60" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="M60" s="3">
+        <v>60</v>
+      </c>
+      <c r="N60" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="O60" s="4"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.15">
+      <c r="C61" s="3">
+        <v>60</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E61" t="s">
+        <v>268</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="J61" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K61" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L61" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="O61" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
